--- a/Data/Transitions/19271952Translation.xlsx
+++ b/Data/Transitions/19271952Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="811">
   <si>
     <t>id</t>
   </si>
@@ -49,16 +49,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9895951735594999}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9990105540897097, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.823785824440137e-05}</t>
+    <t>{14.0: 0.9990105540897097, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.862468055472948e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,7 +67,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0, 995.0: 1.0}</t>
@@ -94,22 +94,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.005317945236478841, 246.0: 0.0014045075103535124, 681.0: 0.005656892172708382, 741.0: 0.0013812154696132596}</t>
+    <t>{46.0: 1.0, 90.0: 0.005340909090909091, 246.0: 0.0014045099541301804, 681.0: 0.005656892172708382, 741.0: 0.0013892747985551543}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -139,34 +139,34 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.006491762867531044}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.0064918045262522235}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.052093120367470505}</t>
+    <t>{75.0: 1.0, 917.0: 0.05246556618652087}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9948036115071597, 172.0: 0.0017460035917788175}</t>
+    <t>{79.0: 0.9993761696818465}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9948093683812907, 172.0: 0.0017369111696087657}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -178,10 +178,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.994052232029912, 178.0: 0.008741636293170308, 492.0: 0.0026447608446060716, 97.0: 1.3291445142580957e-05, 696.0: 3.4539568464333804e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.8967637375132628, 694.0: 0.006483790523690773}</t>
+    <t>{85.0: 0.9940170594048064, 178.0: 0.008787936260567477, 492.0: 0.0026448839746169156, 97.0: 1.3250883392226149e-05, 696.0: 3.3556181386114524e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.8967465145821124, 694.0: 0.006483790523690773}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 92.0: 0.040265849431765505, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9597341505682345, 91.0: 0.03813849167117715}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 92.0: 0.0395714828352435, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9604285171647565, 91.0: 0.038138650843432466}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,10 +208,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9951227788408464}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{97.0: 0.9951567948489588}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -232,16 +232,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164, 86.0: -1.7825636407842836e-05, 543.0: -8.621046374552892e-06}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 86.0: -1.1964940251659625e-05, 543.0: -5.786626767105416e-06, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467, 86.0: 0.0008838891141578506, 543.0: 0.000445152667124915}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 86.0: 0.0013519135389946312, 543.0: 0.0006808635924644594, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -253,13 +253,13 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9325995807127883, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
+    <t>{142.0: 0.9325995807127883, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528, 975.0: 0.0008214690645289342}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015302591742855296}</t>
+    <t>{152.0: 0.9995732878173672, 975.0: 0.0008214403552842996}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001543025857522946}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -292,10 +292,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 1.0, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -307,16 +307,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7195618837498137}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982531055900621, 81.0: 0.004688835629826501}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.001843951069630992, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.7225911313500082}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982622127823905, 81.0: 0.004688878406681026}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018593348291972536, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,40 +328,40 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.010330059016298597}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 850.0: 0.0011018966358130604, 277.0: 4.38094565749719e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 850.0: 0.001560332981491432, 277.0: 6.203607287057942e-05}</t>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.010415463666074353}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 850.0: 0.0011036579166127315, 277.0: 4.408673998884865e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 850.0: 0.0015638979353379187, 277.0: 6.247149647233791e-05}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0023339836856795435, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9917785638508975, 171.0: 0.0036495214120508754, 593.0: 0.0009448311481210115, 778.0: 0.0005930931548929425}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.008612127279709971}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118, 857.0: 0.00537477625323952}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.0023355325289895535, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917621971834255, 171.0: 0.0036220285020085534, 593.0: 0.000944548826804739, 778.0: 0.0005775144643994738}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.006119152019756793}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775, 857.0: 0.005373166020931479}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -370,13 +370,13 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -385,7 +385,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.001962595243592704}</t>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.001962595243592704}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,31 +394,31 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.2727846961866583}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{265.0: 0.20300968880857473}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,10 +427,10 @@
     <t>{226.0: 0.7391327351334501}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,16 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.002564069085859641}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -475,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.4717851781842442, 543.0: 0.008877856182655346}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9961354256592442}</t>
+    <t>{858.0: 0.3352162749358088, 543.0: 0.006307959674399435}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9961315884520018}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -487,7 +490,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -499,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,28 +526,28 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
-  </si>
-  <si>
-    <t>{267.0: 0.9917627677100495}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
+  </si>
+  <si>
+    <t>{267.0: 0.9914588315681585}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -559,7 +562,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9217862626854386}</t>
+    <t>{277.0: 0.9215736590859955}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -568,10 +571,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005053750609359766, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239}</t>
+    <t>{281.0: 1.0, 599.0: 0.005052641409470727, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -583,13 +586,13 @@
     <t>{285.0: 1.0, 311.0: 0.002875413072400326}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.05471677235106734}</t>
+    <t>{286.0: 1.0, 909.0: 0.055654435197145524}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -610,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -625,7 +628,7 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -640,25 +643,25 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506, 857.0: 5.585426628960308e-06}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993, 857.0: 5.5879010765889695e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.18419073314511528}</t>
+    <t>{311.0: 0.26132139123345577}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -667,31 +670,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 476.0: 0.017708674968506914, 141.0: 0.0015162157654260925}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.24571753336152957, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3096939584397832}</t>
+    <t>{402.0: 0.9983019057254231, 476.0: 0.017708604760049776, 141.0: 0.0015162157654260925}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.35005776247073445, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31245635026236357}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,16 +700,16 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.9929952794274403}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.9931527240250074}</t>
   </si>
   <si>
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.4350812208144059, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.32789516505867994, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -727,46 +727,46 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.9961880559085133}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.864197190205337, 212.0: 0.0008088029145710924}</t>
+    <t>{418.0: 0.996164500319625}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8627846712373488, 212.0: 0.0008055402969245773}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
+    <t>{597.0: 0.13743568393910327}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -799,7 +799,7 @@
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096}</t>
+    <t>{443.0: 0.9625164401578256}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
@@ -808,13 +808,13 @@
     <t>{476.0: 0.982261273209549}</t>
   </si>
   <si>
-    <t>{477.0: 0.08288882327934162}</t>
+    <t>{477.0: 0.0828872914271976}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -838,16 +838,16 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7660189137195403, 97.0: 0.004860304774426683, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
+    <t>{492.0: 0.7660545766481357, 97.0: 0.004826340390360104, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -865,19 +865,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605, 857.0: 4.435158886417873e-06}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106, 857.0: 4.434114317499588e-06}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -892,10 +892,10 @@
     <t>{507.0: 0.9989233419465977}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,16 +907,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 476.0: 1.1734260202532035e-05, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 476.0: 1.1734213680457066e-05, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,16 +928,16 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.10538281020827223, 911.0: 0.01249604555520405}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8946171897917278}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.980110380594447}</t>
-  </si>
-  <si>
-    <t>{544.0: 1.0, 975.0: 0.0007079704314882281}</t>
+    <t>{542.0: 0.09915131442765474, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9008486855723453}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.9800564019401017}</t>
+  </si>
+  <si>
+    <t>{544.0: 1.0, 975.0: 0.000707939738530667}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0}</t>
@@ -985,10 +985,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.7049758840017422, 752.0: 0.04612635356536104}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.7042020731162082, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -997,13 +997,13 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 742.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 742.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1024,25 +1024,25 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.32222566945663483, 686.0: 0.0031784310045871716, 171.0: 0.001344575637659295}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6745488866890498, 686.0: 0.006653743940318745, 171.0: 0.0028147416094494553}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.8317561741481748e-05}</t>
+    <t>{593.0: 0.4952232063620879, 686.0: 0.004833238028639742, 171.0: 0.0020751461355047337}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5015556694602002, 686.0: 0.004895041072333087, 171.0: 0.0021016812133392445}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.8387816720691333e-05}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017882490564377636}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9770637588262626}</t>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.018098046241080627}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9768493123494487}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1057,19 +1057,19 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012023636026262407}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012025834345530434}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1090,7 +1090,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1099,10 +1099,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009433937212400633, 789.0: 0.004051324983440062}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.010772210118615348, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009489582591142481, 789.0: 0.004051002677320427}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.010616724323034713, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1114,7 +1114,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1126,10 +1126,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1150,25 +1150,25 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.001177581845678005}</t>
+    <t>{702.0: 0.001070622812488529}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9940650146591502}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820504535674003}</t>
+    <t>{681.0: 0.9819650489176246}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.002109181141439206}</t>
+    <t>{683.0: 1.0, 698.0: 0.0021246016371930265}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1177,10 +1177,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.990167825055094}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658, 502.0: 4.369735659003756e-05}</t>
+    <t>{686.0: 0.9902717208990272}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516, 502.0: 4.332111677840183e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1192,28 +1192,28 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{694.0: 0.9935162094763093, 86.0: 0.10101962291233192}</t>
-  </si>
-  <si>
-    <t>{695.0: 0.9801570036886409, 857.0: 0.002412726434211323}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.006957536667623922, 14.0: 0.0009894459102902375, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{694.0: 0.9935162094763093, 86.0: 0.10101768276473509}</t>
+  </si>
+  <si>
+    <t>{695.0: 0.9802098910129465, 857.0: 0.002412158188719776}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006921363786707522, 14.0: 0.0009894459102902375, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17880250633417835}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.8190883125243824}</t>
+    <t>{698.0: 0.4139050337946743}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5839703645681326}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1222,7 +1222,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
+    <t>{702.0: 0.8093908462413278}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1231,10 +1231,10 @@
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24651638430607126}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.24737822594408024}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1246,7 +1246,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.15663214004979042, 888.0: 0.6845827597220233}</t>
+    <t>{734.0: 1.0, 73.0: 0.156636125432775, 888.0: 0.6845807356371736}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1255,28 +1255,28 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16773074800977378, 246.0: 0.0002554275350402646}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 742.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.4368892918303616}</t>
+    <t>{740.0: 1.0, 789.0: 0.1677175283732661, 246.0: 0.000255116027440638}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 742.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.35001210556048745}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1297,7 +1297,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.048507731692186445}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.04841970093971142}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1339,7 +1339,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1360,16 +1360,16 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.999406906845107, 171.0: 0.01832283853376267, 184.0: 0.008221436149102493, 593.0: 0.001243463922487012, 420.0: 0.0013266766813100044, 212.0: 1.2416378792924353e-06}</t>
+    <t>{778.0: 0.9994224855356005, 171.0: 0.01811161633281786, 184.0: 0.008237802816574552, 593.0: 0.001243129278002249, 420.0: 0.0013245082456821442, 212.0: 1.2366292553340148e-06}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.000507552863013857, 172.0: 8.908181590708252e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0005017532120282234, 172.0: 8.760480008114152e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1381,13 +1381,13 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.04165571887483691}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.8282179270067861, 246.0: 0.0012612455741220093}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.03638598371247355}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.8282314689494136, 246.0: 0.0012598273073130893}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1396,19 +1396,19 @@
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{833.0: 1.0, 17.0: 0.015066543902234872, 918.0: 0.0009159606136936112}</t>
+    <t>{833.0: 1.0, 17.0: 0.01506752864366639, 918.0: 0.0009159606136936112}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1438,25 +1438,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.03965238146853967}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.039839460656926125}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0021906048708660924}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022624877410163248}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1465,10 +1465,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9922024767270339, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.0705509534663924, 543.0: 0.0013275983379436287}</t>
+    <t>{857.0: 0.9922046537749547, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.33960102705905587, 543.0: 0.006390470106152715}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1477,13 +1477,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.8897969324361419, 253.0: 0.00146348179676997, 490.0: 0.04277317100117222}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.9837473879730672}</t>
+    <t>{861.0: 0.895224211041845, 253.0: 0.0014724082418451398, 490.0: 0.04318803107812268}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.9830426356589147}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1492,10 +1492,10 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.9892277898813846, 267.0: 0.008237232289950576}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.30892547741044557}</t>
+    <t>{887.0: 0.9893832756769653, 267.0: 0.008541168431841476}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.30892745983657405}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1510,55 +1510,55 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5284090305469189}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.9452832276489327}</t>
-  </si>
-  <si>
-    <t>{911.0: 0.987503954444796}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.0943633528885198, 253.0: 0.0001552028830403286, 490.0: 0.004536113445900516}</t>
+    <t>{788.0: 0.5258825654402548}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.9443455648028545}</t>
+  </si>
+  <si>
+    <t>{911.0: 0.9875177753199558}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.08891944116859278, 253.0: 0.00014624908086939602, 490.0: 0.004289713728998983}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.95590953518928, 110.0: 0.13225596173777687}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{914.0: 0.95590953518928, 110.0: 0.13230807735601716}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.9479068796325295}</t>
+    <t>{917.0: 0.9475344338134791}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1567,7 +1567,7 @@
     <t>{921.0: 0.9903586579251832}</t>
   </si>
   <si>
-    <t>{922.0: 0.9887540197586044}</t>
+    <t>{922.0: 0.9887856689010539}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1585,7 +1585,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 922.0: 0.007853011767903095, 3.0: 0.0162526120269329, 418.0: 0.0038119440914866584}</t>
+    <t>{928.0: 1.0, 922.0: 0.007749259923376745, 3.0: 0.01695736434108527, 418.0: 0.0038354996803750267}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1594,19 +1594,19 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09421646692390045}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09502178943540394}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1615,19 +1615,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1636,16 +1636,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9963503872477665}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.996307192025492}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1663,13 +1663,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.37392488484691844}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27544565774862106}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{992.0: 0.42961599983178916}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.21976384529210544}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{5.0: 1.0}</t>
@@ -1684,7 +1684,7 @@
     <t>{11.0: 0.9970355731225297, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994832, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033589, 696.0: 0.0057214311615196856, 492.0: 9.252232685240912e-05}</t>
+    <t>{14.0: 0.9919302775984509, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098776, 696.0: 0.0057179007368205565, 492.0: 9.229939229500005e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1699,7 +1699,7 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9670222461794374, 90.0: 0.014019138053804303, 246.0: 0.00338714853313423, 681.0: 0.014145747245030031, 741.0: 0.00142571998859424}</t>
+    <t>{46.0: 0.9670222461794374, 90.0: 0.014019138053804295, 246.0: 0.00338714853313423, 681.0: 0.014145747245030031, 741.0: 0.00142571998859424}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121357, 443.0: 0.0817009077878643}</t>
@@ -1714,19 +1714,19 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.885287356321839, 917.0: 0.11471264367816088}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.8878903617164684, 917.0: 0.11210963828353182}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613504, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699433, 172.0: 0.0014617321300571375}</t>
-  </si>
-  <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203813}</t>
+  </si>
+  <si>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180959, 694.0: 0.011355364681904206}</t>
@@ -1741,10 +1741,10 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9628148011524464, 92.0: 0.004566266646967782, 104.0: 0.021051731640396542, 294.0: 0.00360459378887126, 566.0: 0.00796260677131807}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.6191995704593853, 91.0: 0.38080042954061477}</t>
+    <t>{91.0: 0.9628148011524468, 92.0: 0.004334749724608858, 104.0: 0.021283248562755458, 294.0: 0.00360459378887126, 566.0: 0.00796260677131807}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.6191995704593853, 91.0: 0.38080042954061494}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1753,16 +1753,16 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9974495015699063, 86.0: 0.001732084107843088, 543.0: 0.0008184143222506396}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.980154611912809, 86.0: 0.001702051305706429, 543.0: 0.0008042237438054802, 505.0: 0.017339113037679228}</t>
+    <t>{107.0: 0.9974548159024924, 86.0: 0.0017320933362511442, 543.0: 0.0008130907612562256}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9801598340995815, 86.0: 0.0017020603741020747, 543.0: 0.0007989924886369113, 505.0: 0.017339113037679228}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 0.778344322842229, 110.0: 0.22165567715777135}</t>
+    <t>{109.0: 0.7783443228422288, 110.0: 0.22165567715777135}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1774,7 +1774,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007265, 44.0: 0.015208262399273639}</t>
+    <t>{142.0: 0.984711922418711, 44.0: 0.01528807758128922}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1789,13 +1789,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
-    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891522984659927, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.0218916729923871, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.979945769710397, 914.0: 0.019393847876713152, 110.0: 0.0006603824128895606}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051425, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1804,34 +1804,34 @@
     <t>{172.0: 0.9946275071633239, 81.0: 0.005372492836676218}</t>
   </si>
   <si>
-    <t>{173.0: 0.9551925469933332, 404.0: 0.0061476591922338415, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9852869053457578, 502.0: 0.014713094654242276}</t>
+    <t>{173.0: 0.9551990922786059, 404.0: 0.006141113906961301, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9852869053457574, 502.0: 0.014713094654242276}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.9927808312723697, 681.0: 0.007219168727630309}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.4047509394724499, 850.0: 0.00016351345391478218, 277.0: 1.7664227138239243e-05}</t>
+    <t>{178.0: 0.9927247322672178, 681.0: 0.007275267732782239}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.4037215427584727, 850.0: 0.00016309759271290262, 277.0: 1.7619301986503348e-05}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069351, 850.0: 0.00040380460573048857, 277.0: 4.3622687334388525e-05}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971744383835213, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749618}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676934, 182.0: 0.0037645448323066406}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9835310975016114, 171.0: 0.011387480521058113, 593.0: 0.0033967858587322266, 778.0: 0.001684636118598383}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
+    <t>{182.0: 0.9971634886605054, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794812}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602094, 182.0: 0.0035994764397905762}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9834880171812896, 171.0: 0.011407602914240292, 593.0: 0.0034060103392520745, 778.0: 0.001698369565217391}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947868}</t>
   </si>
   <si>
     <t>{311.0: 1.0}</t>
@@ -1843,10 +1843,10 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744951, 857.0: 0.005385190725504863}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502373}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1864,16 +1864,13 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.9893097838717172, 409.0: 0.010690216128282594}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310289, 999.0: 0.0998463901689708}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345012, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.9891098484848484, 409.0: 0.010890151515151516}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.841323611564875, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1885,10 +1882,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628102, 297.0: 0.0001804561835678022, 844.0: 0.002257761053621825}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.992380952380952, 738.0: 0.007619047619047619}</t>
+    <t>{227.0: 0.9975636241524386, 297.0: 0.00017861479393955934, 844.0: 0.002257761053621825}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.992380952380952, 738.0: 0.007619047619047624}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427762, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
@@ -1897,7 +1894,7 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.23750306546350664, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1918,7 +1915,7 @@
     <t>{262.0: 0.9992897727272727, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1927,13 +1924,13 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083754, 479.0: 0.012356147657862115, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083754, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328584, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1942,43 +1939,43 @@
     <t>{281.0: 0.9619157530294288, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
   </si>
   <si>
-    <t>{282.0: 0.9968165539196181, 182.0: 0.0031834460803820126}</t>
+    <t>{282.0: 0.9967186218211648, 182.0: 0.0032813781788351114}</t>
   </si>
   <si>
     <t>{285.0: 0.9971814395692229, 311.0: 0.0028185604307769973}</t>
   </si>
   <si>
-    <t>{286.0: 0.9038647175249137, 909.0: 0.09613528247508592}</t>
+    <t>{286.0: 0.9042955098938933, 909.0: 0.09570449010610674}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825851, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.013922582006117505}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9860788863109048, 297.0: 0.013921113689095124}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441456, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{306.0: 0.9617261904761901, 142.0: 0.03827380952380952}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662858, 426.0: 0.0731432659158121, 204.0: 0.0010707941656292628, 857.0: 5.797652272921261e-06}</t>
+    <t>{303.0: 0.997686969930609, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{306.0: 0.9617261904761908, 142.0: 0.03827380952380952}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879629, 426.0: 0.07086273685860801, 204.0: 0.001018084182646364, 857.0: 5.457270782499869e-06}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392755, 5.0: 0.053001830257361125, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.0073159579332418845}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452713, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667584, 217.0: 0.0073159579332418845}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534321, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.4356883607616966}</t>
@@ -1996,10 +1993,10 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.3647447487468991, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2008,13 +2005,13 @@
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471697, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.01478953356086462}</t>
+    <t>{419.0: 0.9852607709750565, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
@@ -2023,7 +2020,7 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04788877445932027}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2032,7 +2029,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243405, 783.0: 0.00018839487565938207}</t>
+    <t>{431.0: 0.9996376811594208, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2056,22 +2053,22 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.022140221402214017}</t>
-  </si>
-  <si>
-    <t>{483.0: 0.9609996213555473, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923822, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.022113022113022112}</t>
+    <t>{479.0: 0.977422389463782, 942.0: 0.02257761053621825}</t>
+  </si>
+  <si>
+    <t>{483.0: 0.9609996213555467, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
   </si>
   <si>
     <t>{491.0: 0.6155305025813929, 492.0: 0.384469497418607}</t>
   </si>
   <si>
-    <t>{492.0: 0.9810074512863981, 97.0: 0.002446549374644078, 696.0: 0.0004937625084625475, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
+    <t>{492.0: 0.9810074371926921, 97.0: 0.002446549374644078, 696.0: 0.0004937766021689648, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -2080,7 +2077,7 @@
     <t>{500.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755828, 534.0: 0.0009418412997409934, 695.0: 0.0011700158119279725, 857.0: 7.285812748269428e-06}</t>
+    <t>{502.0: 0.9978808570755828, 534.0: 0.0009418412997409934, 695.0: 0.0011699865195521572, 857.0: 7.315105124084837e-06}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2101,7 +2098,7 @@
     <t>{531.0: 0.9788982259570493, 262.0: 0.019981325863678803, 442.0: 0.0011204481792717086}</t>
   </si>
   <si>
-    <t>{534.0: 0.9992392131290078, 402.0: 0.0007513670709772362, 476.0: 7.903684289674034e-06, 141.0: 1.5161157253732234e-06}</t>
+    <t>{534.0: 0.9992392131290077, 402.0: 0.0007513670709772362, 476.0: 7.903684289674034e-06, 141.0: 1.5161157253732234e-06}</t>
   </si>
   <si>
     <t>{536.0: 1.0}</t>
@@ -2140,13 +2137,13 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643211, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.988462903798367, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.003812636165577342}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.38534158079506087, 758.0: 0.003812636165577342}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
@@ -2155,10 +2152,10 @@
     <t>{588.0: 0.9977079990831996, 507.0: 0.0022920009168003667}</t>
   </si>
   <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984783, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9912172314130088, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984776, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294207, 599.0: 0.017932683170579104}</t>
@@ -2167,7 +2164,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2191,7 +2188,7 @@
     <t>{618.0: 0.9843454790823211, 246.0: 0.0019026021155964614, 789.0: 0.01375191880208235}</t>
   </si>
   <si>
-    <t>{619.0: 0.965509644191444, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791267, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{621.0: 1.0}</t>
@@ -2218,7 +2215,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852504, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.042517006802721094}</t>
@@ -2233,10 +2230,10 @@
     <t>{694.0: 0.9398443029016278, 86.0: 0.06015569709837227}</t>
   </si>
   <si>
-    <t>{695.0: 0.99381143065162, 857.0: 0.006188569348380051}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661318, 492.0: 0.017884122003138155, 14.0: 0.0004997942885116642, 178.0: 3.254928612905662e-07, 623.0: 8.137321532264153e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{695.0: 0.9937865497076023, 857.0: 0.006213450292397661}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063283, 492.0: 0.01785610337176307, 14.0: 0.0004997969151486987, 178.0: 3.252827303278221e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2251,31 +2248,28 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.26422101444321144, 73.0: 0.13523849320665327, 888.0: 0.6005404923501354}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851535, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.2644190502430502, 73.0: 0.13520755011292845, 888.0: 0.6003733996440214}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192107, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.7011235955056181, 789.0: 0.2985884233755502, 246.0: 0.00028798111883190805}</t>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.2985884233755502, 246.0: 0.0002879811188319081}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.38534158079506087, 758.0: 0.003812636165577342}</t>
-  </si>
-  <si>
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.806692854513823, 580.0: 0.1933071454861769}</t>
-  </si>
-  <si>
-    <t>{758.0: 0.9991689750692521, 583.0: 0.0005095708829251114, 742.0: 0.0003214540478228109}</t>
+    <t>{752.0: 0.8066160041894901, 580.0: 0.1933839958105095}</t>
+  </si>
+  <si>
+    <t>{758.0: 0.9991689750692521, 583.0: 0.0005095708829251116, 742.0: 0.0003214540478228109}</t>
   </si>
   <si>
     <t>{759.0: 1.0}</t>
@@ -2284,16 +2278,16 @@
     <t>{762.0: 0.9509029955661303, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125861, 171.0: 0.019238165421154786, 184.0: 0.002458085790359677, 593.0: 0.001521981335728533, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
+    <t>{778.0: 0.9753594977972543, 171.0: 0.018743715381244096, 184.0: 0.0024402799418704003, 593.0: 0.0014829986394605864, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -2302,52 +2296,52 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 0.8357348703170026, 500.0: 0.16426512968299706}</t>
+    <t>{787.0: 0.8360891445003591, 500.0: 0.16391085549964055}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9990364541512768, 246.0: 0.0009635458487233017}</t>
+    <t>{789.0: 0.9990364541512764, 246.0: 0.0009635458487233017}</t>
   </si>
   <si>
     <t>{833.0: 0.9940704167244313, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229308}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336174, 486.0: 0.07468196059767147, 980.0: 0.019051430084181874}</t>
+    <t>{835.0: 0.9900669157761305, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597998, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336176, 486.0: 0.07468196059767147, 980.0: 0.019051430084181874}</t>
   </si>
   <si>
     <t>{844.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076415, 277.0: 0.09749670619235835}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9899146625290918, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796247, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08456065457257103, 307.0: 8.839720974269258e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.99734555984556, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.992811225258056, 695.0: 0.007188774741944104}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410218, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076418, 277.0: 0.09749670619235835}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8487926071796242, 91.0: 0.0010065767865829517, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08462716049435266, 307.0: 8.839720974269258e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919552, 695.0: 0.007258241308044794}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.0007239000083155151, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.972273998136067, 10.0: 0.027726001863932894}</t>
@@ -2359,7 +2353,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9969504757257865, 267.0: 0.003049524274213223}</t>
+    <t>{887.0: 0.9969948311095083, 267.0: 0.0030051688904916456}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2383,13 +2377,10 @@
     <t>{911.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9908212213410217, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
-  </si>
-  <si>
     <t>{914.0: 0.9042779872152106, 110.0: 0.09572201278478937}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927463}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2398,7 +2389,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418464, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478532, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{921.0: 1.0}</t>
@@ -2407,7 +2398,7 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 0.949381528619679, 922.0: 0.018205948360062927, 3.0: 0.025782688766114188, 418.0: 0.006629834254143647}</t>
+    <t>{928.0: 0.9491902834008096, 922.0: 0.01821712400659769, 3.0: 0.02592592592592593, 418.0: 0.006666666666666666}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -2416,7 +2407,7 @@
     <t>{932.0: 0.9982325910215624, 108.0: 0.0017674089784376105}</t>
   </si>
   <si>
-    <t>{933.0: 0.8733408699141655, 702.0: 0.00550829940027856, 249.0: 0.12115083068555586}</t>
+    <t>{933.0: 0.8738662178227142, 702.0: 0.005485663639816162, 249.0: 0.12064811853746932}</t>
   </si>
   <si>
     <t>{934.0: 0.993501972615456, 5.0: 0.006498027384543977}</t>
@@ -2425,7 +2416,7 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965653, 171.0: 0.003293328528655217, 593.0: 0.0036190543506065143, 85.0: 0.0050890585241730275}</t>
+    <t>{937.0: 0.9880009426222852, 171.0: 0.003293336475407618, 593.0: 0.0036166623781342037, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
     <t>{940.0: 0.9931610942249239, 785.0: 0.00683890577507599}</t>
@@ -2434,13 +2425,13 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.7305358356680625, 634.0: 0.10812454662003076, 848.0: 0.16042594361443505, 707.0: 0.0009136740974718651}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.954137587238285, 615.0: 0.04586241276171485}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.10993183872972913, 848.0: 0.184458926268521, 707.0: 0.001050549176659826}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211055, 615.0: 0.046231155778894494}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -2449,7 +2440,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601318, 489.0: 0.04917254413384412, 935.0: 0.0004118640060240264}</t>
+    <t>{978.0: 0.9504155918601318, 489.0: 0.049174371686916435, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -4246,7 +4237,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4257,7 +4248,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4268,7 +4259,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4279,7 +4270,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4301,7 +4292,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4312,7 +4303,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4323,7 +4314,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4367,7 +4358,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4422,7 +4413,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4444,7 +4435,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4455,12 +4446,12 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4471,7 +4462,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4482,40 +4473,40 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>605</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>628</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4526,40 +4517,40 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>630</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4570,29 +4561,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>632</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4603,7 +4594,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4614,7 +4605,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4625,7 +4616,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4636,7 +4627,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4647,7 +4638,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4658,106 +4649,106 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>633</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>636</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>638</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>637</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4768,51 +4759,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>639</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>638</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>640</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>639</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4823,40 +4814,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>641</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>641</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4867,62 +4858,62 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>643</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>643</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>645</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>644</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4933,7 +4924,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4944,7 +4935,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4955,7 +4946,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4966,7 +4957,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4977,40 +4968,40 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>646</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>646</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -5021,40 +5012,40 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>648</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>648</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -5065,117 +5056,117 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>650</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>649</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>651</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>650</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>606</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>652</v>
+        <v>606</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>652</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>654</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>653</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5186,7 +5177,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -5203,7 +5194,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5214,7 +5205,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5225,7 +5216,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5247,7 +5238,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5258,7 +5249,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5269,7 +5260,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5280,7 +5271,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -5313,7 +5304,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -5324,7 +5315,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -5346,7 +5337,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -5368,7 +5359,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -5379,7 +5370,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5412,7 +5403,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5423,7 +5414,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5434,7 +5425,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5456,7 +5447,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -5478,7 +5469,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5500,7 +5491,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5511,7 +5502,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5522,7 +5513,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5544,7 +5535,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5555,7 +5546,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5566,7 +5557,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5665,7 +5656,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5676,7 +5667,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5687,7 +5678,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5698,7 +5689,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5709,7 +5700,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5731,7 +5722,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5775,7 +5766,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5819,7 +5810,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5830,7 +5821,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5841,7 +5832,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5852,7 +5843,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5918,7 +5909,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5929,7 +5920,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5951,7 +5942,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5962,7 +5953,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5984,7 +5975,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6006,7 +5997,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6017,7 +6008,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6028,7 +6019,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6039,7 +6030,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6072,7 +6063,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6094,7 +6085,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6105,7 +6096,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6138,7 +6129,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6149,7 +6140,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6160,7 +6151,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6171,7 +6162,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -6182,7 +6173,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -6226,7 +6217,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6248,7 +6239,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6259,7 +6250,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -6270,7 +6261,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6292,7 +6283,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6358,7 +6349,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6369,7 +6360,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6380,7 +6371,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6402,7 +6393,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6424,7 +6415,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6457,7 +6448,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6501,7 +6492,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6512,7 +6503,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6523,7 +6514,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6545,7 +6536,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6556,7 +6547,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6567,7 +6558,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6622,7 +6613,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6633,7 +6624,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6644,7 +6635,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6666,7 +6657,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6677,7 +6668,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6688,7 +6679,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6743,7 +6734,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6776,7 +6767,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6787,7 +6778,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6809,7 +6800,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6831,7 +6822,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6875,7 +6866,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6886,7 +6877,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6963,7 +6954,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6996,7 +6987,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7007,7 +6998,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7029,7 +7020,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7062,7 +7053,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7073,7 +7064,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7084,7 +7075,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7095,7 +7086,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7117,7 +7108,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7139,7 +7130,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7150,7 +7141,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7161,7 +7152,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7183,7 +7174,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7194,7 +7185,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7205,7 +7196,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7227,7 +7218,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7260,7 +7251,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7271,7 +7262,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -7315,7 +7306,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7348,7 +7339,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7359,7 +7350,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7381,7 +7372,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7392,7 +7383,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7403,7 +7394,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>750</v>
+        <v>709</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7414,7 +7405,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7425,7 +7416,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7502,7 +7493,7 @@
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -7557,7 +7548,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7568,7 +7559,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7601,7 +7592,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7656,7 +7647,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7689,7 +7680,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7733,7 +7724,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7755,7 +7746,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7766,7 +7757,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7788,7 +7779,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7810,7 +7801,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7821,7 +7812,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -7832,7 +7823,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7865,7 +7856,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7887,7 +7878,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -7898,7 +7889,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7909,7 +7900,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7975,7 +7966,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8019,7 +8010,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8041,7 +8032,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8063,7 +8054,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8074,7 +8065,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8085,7 +8076,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8118,7 +8109,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8129,7 +8120,7 @@
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8162,7 +8153,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8173,7 +8164,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8184,7 +8175,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8206,7 +8197,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8217,7 +8208,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8228,7 +8219,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8283,7 +8274,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8305,7 +8296,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8316,7 +8307,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8327,7 +8318,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8349,7 +8340,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8360,7 +8351,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8371,7 +8362,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8382,7 +8373,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8404,7 +8395,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8415,7 +8406,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8437,7 +8428,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8448,7 +8439,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8459,7 +8450,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8481,7 +8472,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8492,7 +8483,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8558,7 +8549,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8569,7 +8560,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8580,7 +8571,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8591,7 +8582,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8602,7 +8593,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8613,7 +8604,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8635,7 +8626,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8646,7 +8637,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8668,7 +8659,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8679,7 +8670,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8701,7 +8692,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8712,7 +8703,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8745,7 +8736,7 @@
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -8756,7 +8747,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8778,7 +8769,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8789,7 +8780,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8800,7 +8791,7 @@
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -8844,7 +8835,7 @@
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -8855,7 +8846,7 @@
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="550" spans="1:3">
